--- a/devis/CCS berquin.xlsx
+++ b/devis/CCS berquin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Qtité</t>
   </si>
   <si>
+    <t>Prix total</t>
+  </si>
+  <si>
     <t>ml</t>
   </si>
   <si>
@@ -103,12 +106,6 @@
     <t xml:space="preserve"> Céramique  Antidérapant Parquet (Grès)</t>
   </si>
   <si>
-    <t>Electricité du bâtiment  y compris toutes sujétions (fil type américain)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plomberie et branchement </t>
-  </si>
-  <si>
     <t xml:space="preserve">Porte métallique </t>
   </si>
   <si>
@@ -119,12 +116,6 @@
   </si>
   <si>
     <t>ARMENAGEMENT DU CENTRE ,CONSTRUCTION INCINERATEUR ET DEPOT STOCKAGE.</t>
-  </si>
-  <si>
-    <t>CENTRE DE SANTE BERQUIN</t>
-  </si>
-  <si>
-    <t>Crepissage et enduisage murs + Plafonds et mur de soubassement (intérieures/extérieures Centre de sante berquin)</t>
   </si>
   <si>
     <t>RESIDENCE PERSONNELLE BERQUIN</t>
@@ -802,12 +793,673 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Porte en vitre et alluminum à deux battants (1.60mX2.10m)completes avec toute la quincaillerie et serrurerie, fournitures telles que le scellement dans la maçonnerie et securiser par des fers forges de mise en œuvre et  sujétion</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <t>Fenetres type A, de dimension  0.45 m x 0.45 m en lame de vitre  + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type B1, de dimension  1.25 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type C2, de dimension  0.60 m x 0.70 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type B2, de dimension  0.80 m x 0.80 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type C1, de dimension  2.80 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Paillasse plus évier et placard pour le laboratoitre y compris toutes sujestions d'installation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fournitures Sanitaires / Fosse septique + Puisard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:Ce prix rémunère au forfait pour l'achat et la pose des fournitures et équipements pour la Construction de la fosse septique 6x2.0x2.4, soit 28.8m3, repartie en 2 et 1 puisard pour la mis en oeuvre et toutes sujétions. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de charges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Peinture Sherwin Williams ou peinture vlou </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sur les cloisons, les murs d'ecran et les plafonds pour le Centre de Sante et le batiment des residents et soubassement</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Construction Rampes d'Acces + espaces de circulation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir Specification techniques dans le cahier de charge et plans de details).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mains courantes / Garde Corps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir Specification techniques dans le cahier de charge et plans de details).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Construction perrons exterieurs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir Specification techniques dans le cahier de charge et plans de details).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton Armé:  colonnes pour  la Residence. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">dosé @375 kg/m³ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(4fer 5/8 et 4fer 1/2 avec étrier 3/8 grade 60), y compris coffrage, décoffrage, armatures et toutes sujétions de mise en œuvre.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de charger</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton Armé: chainage supérieur pour la Residence. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @ 375 kg/m³ (Barres armature  ½ grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir cahier de charger)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton Armé: chainage intermediaire  pour la Residence </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @ 375 kg/m³ (Barres armature  ½ grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir cahier de charger)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pose Bloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:Ces prix rémunèrent au metre carré (m2) pour l'achat, le transport et la mise en œuvre de la pose des blocs pour  la Residence personnelle comme defini ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15 et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis la dalle de parquet, au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350, + Resisdence personnelle + toutes les espaces a construire et sujétions comprises.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir plans types).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Portes en bois du pays (cèdre, acajou chaine) y  compris cadre en métal, quincaillerie et serrurerie, fournitures telles que le scellement dans la maçonnerie de mise en œuvre et  sujétion (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de decharge et plan de details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type A, de dimension  0.90m x 1.20 m en lame de vitre  + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type B1, de dimension  1.80m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incinerateur complet du Centre de Sante berquin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre M2 pour l'achat, le transport et la mise en œuvre de la construction de l'Incinerateur et de l'entrepot de stockage des dechets avec la fosse a cendre. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tonelle d'attente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre carre (m2) pour la fabrication de la structure, l'achat, le transport et la mise en œuvre de la construction de la Tonnelle d’accueil pour le Centre de Sante, toiture en structure métallique y compris toutes sujétions de mis en œuvre. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Buanderie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre carre (m2) pour la construction complete de la buanderie avec l'amenagement des espace de lavage complet, l'achat, le transport et la mise en œuvre de la construction complete suvant les plans d'execution de la buanderie avec les accesoires hydrauliques et electriques complets pour le Centre de Sante y compris toutes sujétions de mis en œuvre. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir Specification techniques dans le cahier de charge et plans de details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cloture en maconnerie de blocs complete du Centre de Sante Berquin:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre lineaire (ml) pour l'achat, le transport et la mise en œuvre de la pose des blocs comme ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15  et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis le chainage inferieur du mur de fondation, au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350 avec 2 barrières (5mx2.5m et une de 1m) equipe de barbele razoir au-dessus et sujétions comprises. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir specifications techniques dans les plans et le cahier de charge)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">construction d'une reservoir semi-anterre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:Ce prix rémunère au forfait pour l'achat et la pose des fournitures et équipements pour les travaux hydraulique de construction du reservoir semi-enterre de 45 m3 volume utile (6.0m x3m x2.5m) et linstallation de pompe 1Hp pour faire monter l’eau  dans les châteaux et toutes sujétions. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de charges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Armenagement cour+ 75ml (1.20x1.20m)aler pietonne  pour permettre une  circulation adequatre au niveau de la cour,inclus bac a fleur et plante multicolor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir Specification techniques dans le cahier de charge et plans de details).</t>
+    </r>
+  </si>
+  <si>
+    <t>Crepissage et enduisage murs + Plafonds et mur de soubassement extérieures(crepis violine partie exeterieure façade pricipale  Centre de sante )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Porte en vitre translucide de l'exterieure  à deux battants (1.60mX2.10m)completes avec toute la quincaillerie et serrurerie, fournitures telles que le scellement dans la maçonnerie et securiser par des fers forges de mise en œuvre et  sujétion</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -818,51 +1470,11 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fournitures d'appareils hydrauliques et sanitaires:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ce prix rémunère au forfait pour l'achat et la pose, l'installation des fournitures et equipements pour les blocs sanitaires, Water Closet complet (6 WC),9 Lavabo,  sur piedestal,  accessoires complets pour les douches  y compris barres d'appui, équipements et materiels de douche et toutes sujétions. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de charges</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type A, de dimension  0.45 m x 0.45 m en lame de vitre  + grillage en fer forge</t>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type C2, de dimension  1.05 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
     </r>
     <r>
       <rPr>
@@ -877,128 +1489,103 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type B1, de dimension  1.25 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type C2, de dimension  0.60 m x 0.70 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type B2, de dimension  0.80 m x 0.80 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type C1, de dimension  2.80 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Paillasse plus évier et placard pour le laboratoitre y compris toutes sujestions d'installation</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <t>Toiture en grillage fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> :Ces prix rémunèrent pour l'achat, le transport et la mise en œuvre de la Toiture en profilee 2''x1''1/2 pour le quadrillage et recouvert de plexiglass 1/2 transparente pour la facade pricipale comme defini ci-apres, Toutes les espaces a construire et sujétions comprises.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir plans types).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>installation electrique du Batiment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> :Ce prix rémunère au forfait pour l'achat et l'installation des accessoires électriques et luminaires pour le  centre de sante, suivant les indications données sur les plans. Ce prix remunere aussi tous les travaux de préparation pour la mise en place des accessoires électriques et luminaires, lampes solaires y compris toutes matériels de mis en œuvre fil #10,#12 ,14 types Américain et les ampoules inclus (apparent avec tuyaux galvaniser) la main d'oeuvre, le transport et toutes sujestions comprises.  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">N.B:les matériels et accessoires électriques seront de bonne qualité et de marque. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>L'étendue des travaux s'entend comme suit :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Fournitures Sanitaires / Fosse septique + Puisard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>Plomberie et Embranchement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>:Ce prix rémunère au forfait pour l'achat et la pose des fournitures et équipements pour la Construction de la fosse septique 6x2.0x2.4, soit 28.8m3, repartie en 2 et 1 puisard pour la mis en oeuvre et toutes sujétions. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <t>:Ce prix rémunère au forfait pour l'achat et la pose des fournitures et equipements pour les travaux du réseau de drainage en tuyaux 4" PVC SCH 40, Réseau de drainage en tuyaux 2" PVC SCH 40, l'epandage et toutes sujétions. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -1007,137 +1594,48 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Peinture Sherwin Williams ou peinture vlou </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>sur les cloisons, les murs d'ecran et les plafonds pour le Centre de Sante et le batiment des residents et soubassement</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Construction Rampes d'Acces + espaces de circulation </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir Specification techniques dans le cahier de charge et plans de details).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mains courantes / Garde Corps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir Specification techniques dans le cahier de charge et plans de details).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Construction perrons exterieurs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir Specification techniques dans le cahier de charge et plans de details).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton Armé:  colonnes pour  la Residence. </t>
-    </r>
-    <r>
-      <rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">dosé @375 kg/m³ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(4fer 5/8 et 4fer 1/2 avec étrier 3/8 grade 60), y compris coffrage, décoffrage, armatures et toutes sujétions de mise en œuvre.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de charger</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <t>Fournitures d'appareils hydrauliques et sanitaires:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ce prix rémunère au forfait pour l'achat et la pose, l'installation des fournitures et equipements pour les blocs sanitaires, Water Closet complet (4 WC),6 Lavabo,  sur piedestal,  accessoires complets pour les douches  y compris barres d'appui, équipements et materiels de douche et toutes sujétions. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de charges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1145,410 +1643,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Béton Armé: chainage supérieur pour la Residence. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @ 375 kg/m³ (Barres armature  ½ grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir cahier de charger)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton Armé: chainage intermediaire  pour la Residence </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @ 375 kg/m³ (Barres armature  ½ grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir cahier de charger)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Pose Bloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:Ces prix rémunèrent au metre carré (m2) pour l'achat, le transport et la mise en œuvre de la pose des blocs pour  la Residence personnelle comme defini ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15 et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis la dalle de parquet, au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350, + Resisdence personnelle + toutes les espaces a construire et sujétions comprises.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir plans types).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Portes en bois du pays (cèdre, acajou chaine) y  compris cadre en métal, quincaillerie et serrurerie, fournitures telles que le scellement dans la maçonnerie de mise en œuvre et  sujétion (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de decharge et plan de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type A, de dimension  0.90m x 1.20 m en lame de vitre  + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type B1, de dimension  1.80m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Incinerateur complet du Centre de Sante berquin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre M2 pour l'achat, le transport et la mise en œuvre de la construction de l'Incinerateur et de l'entrepot de stockage des dechets avec la fosse a cendre. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tonelle d'attente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre carre (m2) pour la fabrication de la structure, l'achat, le transport et la mise en œuvre de la construction de la Tonnelle d’accueil pour le Centre de Sante, toiture en structure métallique y compris toutes sujétions de mis en œuvre. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Buanderie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre carre (m2) pour la construction complete de la buanderie avec l'amenagement des espace de lavage complet, l'achat, le transport et la mise en œuvre de la construction complete suvant les plans d'execution de la buanderie avec les accesoires hydrauliques et electriques complets pour le Centre de Sante y compris toutes sujétions de mis en œuvre. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir Specification techniques dans le cahier de charge et plans de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cloture en maconnerie de blocs complete du Centre de Sante Berquin:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre lineaire (ml) pour l'achat, le transport et la mise en œuvre de la pose des blocs comme ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15  et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis le chainage inferieur du mur de fondation, au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350 avec 2 barrières (5mx2.5m et une de 1m) equipe de barbele razoir au-dessus et sujétions comprises. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir specifications techniques dans les plans et le cahier de charge)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">construction d'une reservoir semi-anterre </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:Ce prix rémunère au forfait pour l'achat et la pose des fournitures et équipements pour les travaux hydraulique de construction du reservoir semi-enterre de 45 m3 volume utile (6.0m x3m x2.5m) et linstallation de pompe 1Hp pour faire monter l’eau  dans les châteaux et toutes sujétions. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de charges</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Armenagement cour+ 75ml (1.20x1.20m)aler pietonne  pour permettre une  circulation adequatre au niveau de la cour,inclus bac a fleur et plante multicolor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir Specification techniques dans le cahier de charge et plans de details).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Guerite de securite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre carre (m2) pour la construction complete de la guerite de securite, l'achat, le transport et la mise en œuvre de la construction complete suivant les plans d'execution de la guerite de securite pour le Centre de Sante y compris toutes sujétions de mis en œuvre. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
+    <t>CONSTRUCTION CENTRE DE SANTE BERQUIN</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,6 +1738,64 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1680,7 +1833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1727,20 +1880,38 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2039,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2056,7 +2227,7 @@
     <row r="1" spans="1:6" ht="29.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2088,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2096,7 +2267,7 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="177.75" customHeight="1">
@@ -2104,15 +2275,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3">
-        <v>288.13</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>263.14999999999998</v>
+      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="162.75" customHeight="1">
@@ -2120,15 +2291,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
-        <v>129.1</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>103.24</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1">
@@ -2136,13 +2307,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3">
-        <v>7.69</v>
+        <v>6.97</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
@@ -2152,15 +2323,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>172.88</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>157.88999999999999</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="54.75" customHeight="1">
@@ -2168,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>7.4</v>
@@ -2184,15 +2355,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
-        <v>15.58</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>13.65</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="57.75" customHeight="1">
@@ -2200,15 +2371,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>11.1</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="60" customHeight="1">
@@ -2216,15 +2387,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3">
-        <v>11.69</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>10.24</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="81.75" customHeight="1">
@@ -2232,15 +2403,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3">
-        <v>23.05</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>21.05</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="108.75" customHeight="1">
@@ -2248,15 +2419,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="3">
-        <v>98.18</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>85.89</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="189.75" customHeight="1">
@@ -2264,13 +2435,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="3">
-        <v>298.63</v>
+        <v>241.64</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="5"/>
@@ -2280,15 +2451,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <v>3.83</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="41.4">
@@ -2296,13 +2467,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3">
-        <v>23.38</v>
+        <v>21.34</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
@@ -2312,10 +2483,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
         <v>10.5</v>
@@ -2328,47 +2499,47 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3">
-        <v>42.59</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>34.58</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="37.5" customHeight="1">
+    <row r="19" spans="1:6" ht="45.75" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
-        <v>931.35</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="17">
+        <v>779.56</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" ht="132.75" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>288.13</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>263.14999999999998</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="27.6">
@@ -2376,15 +2547,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3">
-        <v>30.5</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="159.75" customHeight="1">
@@ -2392,7 +2563,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -2400,7 +2571,7 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="92.25" customHeight="1">
@@ -2408,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -2416,7 +2587,7 @@
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="83.25" customHeight="1">
@@ -2424,15 +2595,15 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="81" customHeight="1">
@@ -2440,7 +2611,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -2456,13 +2627,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2471,8 +2642,8 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>62</v>
+      <c r="B27" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -2488,7 +2659,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -2504,7 +2675,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
@@ -2520,7 +2691,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
@@ -2536,7 +2707,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
@@ -2552,7 +2723,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
@@ -2568,7 +2739,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
@@ -2584,7 +2755,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -2600,7 +2771,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -2616,10 +2787,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3">
         <v>28.8</v>
@@ -2632,15 +2803,15 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" s="3">
-        <v>931.35</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>779.56</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="41.4">
@@ -2648,7 +2819,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>8</v>
@@ -2659,28 +2830,28 @@
       <c r="E38" s="3"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="27.6">
-      <c r="A39" s="1">
+    <row r="39" spans="1:6" ht="87" customHeight="1">
+      <c r="A39" s="22">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="5"/>
+      <c r="B39" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="23">
+        <v>16.72</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" ht="27.6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -2695,8 +2866,8 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>23</v>
+      <c r="B41" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -2707,21 +2878,29 @@
       <c r="E41" s="3"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="27.6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="10"/>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="1"/>
@@ -2729,292 +2908,288 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A46" s="3">
+    <row r="46" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="3">
-        <v>5.29</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="67.5" customHeight="1">
       <c r="A47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>10.66</v>
+        <v>6.29</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="49.5" customHeight="1">
       <c r="A48" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D48" s="3">
-        <v>2.5499999999999998</v>
+        <v>12.66</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="194.25" customHeight="1">
+    <row r="49" spans="1:6" ht="63.75" customHeight="1">
       <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2.85</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="151.80000000000001">
+      <c r="A50" s="3">
         <v>4</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="3">
-        <v>199.51</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" ht="27.6">
-      <c r="A50" s="3">
+      <c r="D50" s="3">
+        <v>210.51</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="36" customHeight="1">
+      <c r="A51" s="3">
         <v>5</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="3">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="16.8">
-      <c r="A51" s="3">
-        <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" s="3">
-        <v>408.99</v>
-      </c>
-      <c r="E51" s="3"/>
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="16.8">
       <c r="A52" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" s="3">
-        <v>142.62</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>418.99</v>
+      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="16.8">
       <c r="A53" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D53" s="3">
-        <v>122.69</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>142.62</v>
+      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="16.8">
       <c r="A54" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>122.69</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="3">
+    <row r="55" spans="1:6" ht="192" customHeight="1">
+      <c r="A55" s="22">
+        <v>9</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="17">
+        <v>1</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A56" s="22">
         <v>10</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B56" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="17">
         <v>1</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" ht="63.75" customHeight="1">
-      <c r="A56" s="3">
+      <c r="E56" s="18"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" ht="69">
+      <c r="A57" s="3">
         <v>11</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="3">
-        <v>12</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>31</v>
+      <c r="B57" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="16.8">
+    <row r="58" spans="1:6">
       <c r="A58" s="3">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.8">
+      <c r="A59" s="3">
         <v>13</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
+        <v>14</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3">
-        <v>14</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="3">
         <v>1</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" ht="41.4">
-      <c r="A60" s="3">
-        <v>15</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3">
-        <v>6</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="41.4">
       <c r="A61" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="41.4">
       <c r="A62" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>8</v>
@@ -3027,168 +3202,172 @@
     </row>
     <row r="63" spans="1:6" ht="41.4">
       <c r="A63" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="41.4">
       <c r="A64" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="27.6">
+    <row r="65" spans="1:6" ht="41.4">
       <c r="A65" s="3">
-        <v>20</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="16.8">
+    <row r="66" spans="1:6" ht="27.6">
       <c r="A66" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="D66" s="3">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="27.6">
+    <row r="67" spans="1:6" ht="16.8">
       <c r="A67" s="3">
+        <v>21</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" ht="27.6">
+      <c r="A68" s="3">
         <v>22</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="B68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="3">
         <v>514.47</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
+      <c r="E68" s="3"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
         <v>23</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" ht="33.75" customHeight="1">
       <c r="A70" s="11"/>
-      <c r="B70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="3"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A72" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B72" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" ht="97.5" customHeight="1">
-      <c r="A72" s="12">
+      <c r="E72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="84.75" customHeight="1">
+      <c r="A73" s="12">
         <v>1</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="B73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>20.48</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6" ht="105.75" customHeight="1">
-      <c r="A73" s="16">
+      <c r="E73" s="13"/>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" ht="106.5" customHeight="1">
+      <c r="A74" s="12">
         <v>2</v>
       </c>
-      <c r="B73" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="18">
-        <v>6</v>
-      </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-    </row>
-    <row r="74" spans="1:6" ht="104.25" customHeight="1">
-      <c r="A74" s="12">
-        <v>3</v>
-      </c>
       <c r="B74" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>6</v>
@@ -3199,12 +3378,12 @@
       <c r="E74" s="13"/>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="1:6" ht="141.75" customHeight="1">
+    <row r="75" spans="1:6" ht="140.25" customHeight="1">
       <c r="A75" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>6</v>
@@ -3212,18 +3391,18 @@
       <c r="D75" s="11">
         <v>8.35</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:6" ht="234.75" customHeight="1">
+    <row r="76" spans="1:6" ht="225" customHeight="1">
       <c r="A76" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76" s="11">
         <v>225.12</v>
@@ -3231,15 +3410,15 @@
       <c r="E76" s="11"/>
       <c r="F76" s="14"/>
     </row>
-    <row r="77" spans="1:6" ht="112.5" customHeight="1">
+    <row r="77" spans="1:6" ht="97.5" customHeight="1">
       <c r="A77" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" s="11">
         <v>45</v>
@@ -3247,12 +3426,12 @@
       <c r="E77" s="11"/>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" spans="1:6" ht="66" customHeight="1">
+    <row r="78" spans="1:6" ht="19.5" customHeight="1">
       <c r="A78" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>7</v>
@@ -3263,24 +3442,24 @@
       <c r="E78" s="11"/>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:6" ht="19.5" customHeight="1">
+    <row r="79" spans="1:6" ht="17.25" customHeight="1">
       <c r="A79" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="1:6" ht="17.25" customHeight="1">
+    <row r="80" spans="1:6">
       <c r="A80" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
